--- a/Plate_bn_exp/data/streaks/streak_entry.xlsx
+++ b/Plate_bn_exp/data/streaks/streak_entry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="460" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="10240" yWindow="460" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="294">
   <si>
     <t>ID</t>
   </si>
@@ -477,6 +477,438 @@
   </si>
   <si>
     <t>50-clone</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>7.12</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>7.17</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>7.19</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>7.22</t>
+  </si>
+  <si>
+    <t>7.23</t>
+  </si>
+  <si>
+    <t>7.24</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>8.10</t>
+  </si>
+  <si>
+    <t>8.11</t>
+  </si>
+  <si>
+    <t>8.12</t>
+  </si>
+  <si>
+    <t>8.13</t>
+  </si>
+  <si>
+    <t>8.14</t>
+  </si>
+  <si>
+    <t>8.15</t>
+  </si>
+  <si>
+    <t>8.16</t>
+  </si>
+  <si>
+    <t>8.17</t>
+  </si>
+  <si>
+    <t>8.18</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>8.20</t>
+  </si>
+  <si>
+    <t>8.21</t>
+  </si>
+  <si>
+    <t>8.22</t>
+  </si>
+  <si>
+    <t>8.23</t>
+  </si>
+  <si>
+    <t>8.24</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>9.13</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>9.15</t>
+  </si>
+  <si>
+    <t>9.16</t>
+  </si>
+  <si>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>9.18</t>
+  </si>
+  <si>
+    <t>9.19</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>9.21</t>
+  </si>
+  <si>
+    <t>9.22</t>
+  </si>
+  <si>
+    <t>9.23</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>10.11</t>
+  </si>
+  <si>
+    <t>10.12</t>
+  </si>
+  <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>10.14</t>
+  </si>
+  <si>
+    <t>10.15</t>
+  </si>
+  <si>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>10.17</t>
+  </si>
+  <si>
+    <t>10.18</t>
+  </si>
+  <si>
+    <t>10.19</t>
+  </si>
+  <si>
+    <t>10.20</t>
+  </si>
+  <si>
+    <t>10.21</t>
+  </si>
+  <si>
+    <t>10.22</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>10.24</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>11.10</t>
+  </si>
+  <si>
+    <t>11.11</t>
+  </si>
+  <si>
+    <t>11.12</t>
+  </si>
+  <si>
+    <t>11.13</t>
+  </si>
+  <si>
+    <t>11.14</t>
+  </si>
+  <si>
+    <t>11.15</t>
+  </si>
+  <si>
+    <t>11.16</t>
+  </si>
+  <si>
+    <t>11.17</t>
+  </si>
+  <si>
+    <t>11.18</t>
+  </si>
+  <si>
+    <t>11.19</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t>11.21</t>
+  </si>
+  <si>
+    <t>11.22</t>
+  </si>
+  <si>
+    <t>11.23</t>
+  </si>
+  <si>
+    <t>11.24</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>12.10</t>
+  </si>
+  <si>
+    <t>12.11</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>12.13</t>
+  </si>
+  <si>
+    <t>12.14</t>
+  </si>
+  <si>
+    <t>12.15</t>
+  </si>
+  <si>
+    <t>12.16</t>
+  </si>
+  <si>
+    <t>12.17</t>
+  </si>
+  <si>
+    <t>12.18</t>
+  </si>
+  <si>
+    <t>12.19</t>
+  </si>
+  <si>
+    <t>12.20</t>
+  </si>
+  <si>
+    <t>12.21</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>12.24</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>7.9</t>
   </si>
 </sst>
 </file>
@@ -486,7 +918,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,6 +952,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -614,13 +1052,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -645,62 +1085,43 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1034,24 +1455,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C440"/>
+  <dimension ref="A1:I728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="A295" sqref="A295:C295"/>
+    <sheetView tabSelected="1" topLeftCell="A705" workbookViewId="0">
+      <selection activeCell="H307" sqref="H307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="15"/>
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2058,2098 +2480,4573 @@
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="10" t="s">
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="16">
+        <v>7.3</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="22"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="22"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="22"/>
+      <c r="H166" s="22"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="22"/>
+      <c r="H167" s="22"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="22"/>
+      <c r="H168" s="22"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="22"/>
+      <c r="H175" s="22"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="22"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="22"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="22"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="22"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="22"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="22"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="22"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="22"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="22"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="22"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="22"/>
+      <c r="H197" s="22"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="22"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="22"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="22"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="22"/>
+      <c r="H206" s="22"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="22"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="22"/>
+      <c r="H208" s="22"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="F209" s="21"/>
+      <c r="G209" s="22"/>
+      <c r="H209" s="22"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="F210" s="21"/>
+      <c r="G210" s="22"/>
+      <c r="H210" s="22"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="22"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="22"/>
+      <c r="H212" s="22"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="22"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="22"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="22"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="F216" s="21"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="22"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="F218" s="21"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="22"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="F220" s="21"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="22"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="22"/>
+      <c r="H222" s="22"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="22"/>
+      <c r="H223" s="22"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="22"/>
+      <c r="H224" s="22"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="22"/>
+      <c r="H225" s="22"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="F226" s="21"/>
+      <c r="G226" s="23"/>
+      <c r="H226" s="22"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="22"/>
+      <c r="H227" s="22"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="22"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="F230" s="21"/>
+      <c r="G230" s="22"/>
+      <c r="H230" s="22"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="F231" s="21"/>
+      <c r="G231" s="22"/>
+      <c r="H231" s="22"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="F232" s="21"/>
+      <c r="G232" s="22"/>
+      <c r="H232" s="22"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="F233" s="21"/>
+      <c r="G233" s="22"/>
+      <c r="H233" s="22"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="22"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="22"/>
+      <c r="H235" s="22"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="F236" s="21"/>
+      <c r="G236" s="22"/>
+      <c r="H236" s="22"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="F237" s="21"/>
+      <c r="G237" s="22"/>
+      <c r="H237" s="22"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="F238" s="21"/>
+      <c r="G238" s="22"/>
+      <c r="H238" s="22"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="22"/>
+      <c r="H239" s="22"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="F240" s="21"/>
+      <c r="G240" s="22"/>
+      <c r="H240" s="22"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="F241" s="21"/>
+      <c r="G241" s="22"/>
+      <c r="H241" s="22"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="F242" s="21"/>
+      <c r="G242" s="22"/>
+      <c r="H242" s="22"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="F243" s="21"/>
+      <c r="G243" s="22"/>
+      <c r="H243" s="22"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="F244" s="21"/>
+      <c r="G244" s="22"/>
+      <c r="H244" s="22"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="F245" s="21"/>
+      <c r="G245" s="22"/>
+      <c r="H245" s="22"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="F246" s="21"/>
+      <c r="G246" s="22"/>
+      <c r="H246" s="22"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="F247" s="21"/>
+      <c r="G247" s="22"/>
+      <c r="H247" s="22"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="F248" s="21"/>
+      <c r="G248" s="22"/>
+      <c r="H248" s="22"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="F249" s="21"/>
+      <c r="G249" s="22"/>
+      <c r="H249" s="22"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="F250" s="21"/>
+      <c r="G250" s="22"/>
+      <c r="H250" s="22"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="F251" s="21"/>
+      <c r="G251" s="22"/>
+      <c r="H251" s="22"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="F252" s="21"/>
+      <c r="G252" s="22"/>
+      <c r="H252" s="22"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="F253" s="21"/>
+      <c r="G253" s="22"/>
+      <c r="H253" s="22"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="F254" s="21"/>
+      <c r="G254" s="22"/>
+      <c r="H254" s="22"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="F255" s="21"/>
+      <c r="G255" s="24"/>
+      <c r="H255" s="22"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="F256" s="21"/>
+      <c r="G256" s="22"/>
+      <c r="H256" s="22"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="22"/>
+      <c r="H257" s="22"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="F258" s="21"/>
+      <c r="G258" s="22"/>
+      <c r="H258" s="22"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="F259" s="21"/>
+      <c r="G259" s="22"/>
+      <c r="H259" s="22"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="22"/>
+      <c r="H260" s="22"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="F261" s="21"/>
+      <c r="G261" s="22"/>
+      <c r="H261" s="22"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="F262" s="21"/>
+      <c r="G262" s="22"/>
+      <c r="H262" s="22"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="F263" s="21"/>
+      <c r="G263" s="22"/>
+      <c r="H263" s="22"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="F264" s="21"/>
+      <c r="G264" s="22"/>
+      <c r="H264" s="22"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="F265" s="21"/>
+      <c r="G265" s="22"/>
+      <c r="H265" s="22"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="F266" s="21"/>
+      <c r="G266" s="22"/>
+      <c r="H266" s="22"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="F267" s="21"/>
+      <c r="G267" s="22"/>
+      <c r="H267" s="22"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="F268" s="21"/>
+      <c r="G268" s="22"/>
+      <c r="H268" s="22"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="F269" s="21"/>
+      <c r="G269" s="22"/>
+      <c r="H269" s="22"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="F270" s="21"/>
+      <c r="G270" s="22"/>
+      <c r="H270" s="22"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="F271" s="21"/>
+      <c r="G271" s="22"/>
+      <c r="H271" s="22"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="F272" s="21"/>
+      <c r="G272" s="22"/>
+      <c r="H272" s="22"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="F273" s="21"/>
+      <c r="G273" s="22"/>
+      <c r="H273" s="22"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="F274" s="21"/>
+      <c r="G274" s="22"/>
+      <c r="H274" s="22"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="F275" s="21"/>
+      <c r="G275" s="22"/>
+      <c r="H275" s="22"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="F276" s="21"/>
+      <c r="G276" s="22"/>
+      <c r="H276" s="22"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="F277" s="21"/>
+      <c r="G277" s="22"/>
+      <c r="H277" s="22"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="F278" s="21"/>
+      <c r="G278" s="22"/>
+      <c r="H278" s="22"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="F279" s="21"/>
+      <c r="G279" s="22"/>
+      <c r="H279" s="22"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="F280" s="21"/>
+      <c r="G280" s="22"/>
+      <c r="H280" s="22"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="F281" s="21"/>
+      <c r="G281" s="22"/>
+      <c r="H281" s="22"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="F282" s="21"/>
+      <c r="G282" s="22"/>
+      <c r="H282" s="22"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="F283" s="21"/>
+      <c r="G283" s="22"/>
+      <c r="H283" s="22"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="F284" s="21"/>
+      <c r="G284" s="22"/>
+      <c r="H284" s="22"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="F285" s="21"/>
+      <c r="G285" s="22"/>
+      <c r="H285" s="22"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="F286" s="21"/>
+      <c r="G286" s="22"/>
+      <c r="H286" s="22"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="F287" s="21"/>
+      <c r="G287" s="22"/>
+      <c r="H287" s="22"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="F288" s="21"/>
+      <c r="G288" s="22"/>
+      <c r="H288" s="22"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="F289" s="21"/>
+      <c r="G289" s="22"/>
+      <c r="H289" s="22"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="F290" s="21"/>
+      <c r="G290" s="22"/>
+      <c r="H290" s="22"/>
+      <c r="I290" s="19"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F291" s="21"/>
+      <c r="G291" s="22"/>
+      <c r="H291" s="22"/>
+      <c r="I291" s="19"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+      <c r="B292" s="13"/>
+      <c r="C292" s="13"/>
+      <c r="F292" s="19"/>
+      <c r="G292" s="19"/>
+      <c r="H292" s="19"/>
+      <c r="I292" s="19"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B293" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C293" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+      <c r="F293" s="19"/>
+      <c r="G293" s="19"/>
+      <c r="H293" s="19"/>
+      <c r="I293" s="19"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
+      <c r="B347" s="4"/>
+      <c r="C347" s="4"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
+      <c r="B350" s="4"/>
+      <c r="C350" s="4"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
+      <c r="B356" s="4"/>
+      <c r="C356" s="4"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
+      <c r="B357" s="4"/>
+      <c r="C357" s="4"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
+      <c r="B358" s="4"/>
+      <c r="C358" s="4"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
+      <c r="B361" s="4"/>
+      <c r="C361" s="4"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
+      <c r="B362" s="4"/>
+      <c r="C362" s="4"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B222" s="3"/>
-      <c r="C222" s="4"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
+      <c r="B366" s="3"/>
+      <c r="C366" s="4"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
+      <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B227" s="5"/>
-      <c r="C227" s="6"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
+      <c r="B371" s="5"/>
+      <c r="C371" s="6"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B228" s="7"/>
-      <c r="C228" s="8"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
+      <c r="B372" s="7"/>
+      <c r="C372" s="8"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
+      <c r="B373" s="4"/>
+      <c r="C373" s="4"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
+      <c r="B378" s="3"/>
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
+      <c r="B380" s="3"/>
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
+      <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B238" s="3"/>
-      <c r="C238" s="4"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
+      <c r="B382" s="3"/>
+      <c r="C382" s="4"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
+      <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B245" s="3"/>
-      <c r="C245" s="4"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
+      <c r="B389" s="3"/>
+      <c r="C389" s="4"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="1" t="s">
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="1" t="s">
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="1" t="s">
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
+      <c r="B399" s="3"/>
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="1" t="s">
+      <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B257" s="9"/>
-      <c r="C257" s="3"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
+      <c r="B401" s="9"/>
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
+      <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="1" t="s">
+      <c r="B403" s="4"/>
+      <c r="C403" s="4"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
+      <c r="B404" s="3"/>
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
+      <c r="B412" s="3"/>
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
+      <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B270" s="3"/>
-      <c r="C270" s="4"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
+      <c r="B414" s="3"/>
+      <c r="C414" s="4"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="1" t="s">
+      <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
+      <c r="B416" s="3"/>
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="1" t="s">
+      <c r="B417" s="3"/>
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
+      <c r="B418" s="3"/>
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="1" t="s">
+      <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B276" s="3"/>
-      <c r="C276" s="3"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
+      <c r="B420" s="3"/>
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
+      <c r="B421" s="3"/>
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="1" t="s">
+      <c r="B422" s="3"/>
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B279" s="3"/>
-      <c r="C279" s="3"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
+      <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
+      <c r="B424" s="3"/>
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B281" s="3"/>
-      <c r="C281" s="3"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B283" s="3"/>
-      <c r="C283" s="3"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="1" t="s">
+      <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="1" t="s">
+      <c r="B428" s="3"/>
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="1" t="s">
+      <c r="B429" s="3"/>
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B286" s="3"/>
-      <c r="C286" s="4"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
+      <c r="B430" s="3"/>
+      <c r="C430" s="4"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B287" s="3"/>
-      <c r="C287" s="3"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
+      <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B288" s="3"/>
-      <c r="C288" s="3"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
+      <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B289" s="3"/>
-      <c r="C289" s="3"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
+      <c r="B433" s="3"/>
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B290" s="3"/>
-      <c r="C290" s="3"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
+      <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B291" s="3"/>
-      <c r="C291" s="3"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="1" t="s">
+      <c r="B435" s="3"/>
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
+      <c r="B436" s="3"/>
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B293" s="3"/>
-      <c r="C293" s="3"/>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="21" t="s">
+      <c r="B437" s="3"/>
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" s="16">
+        <v>7.3</v>
+      </c>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" s="16">
+        <v>7.7</v>
+      </c>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" s="16">
+        <v>7.9</v>
+      </c>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B465" s="1"/>
+      <c r="C465" s="1"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B466" s="1"/>
+      <c r="C466" s="1"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B502" s="1"/>
+      <c r="C502" s="1"/>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B505" s="1"/>
+      <c r="C505" s="1"/>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B509" s="1"/>
+      <c r="C509" s="1"/>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B511" s="1"/>
+      <c r="C511" s="1"/>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B512" s="1"/>
+      <c r="C512" s="1"/>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B513" s="1"/>
+      <c r="C513" s="1"/>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B515" s="1"/>
+      <c r="C515" s="1"/>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B516" s="1"/>
+      <c r="C516" s="1"/>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B517" s="1"/>
+      <c r="C517" s="1"/>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B520" s="1"/>
+      <c r="C520" s="1"/>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B521" s="1"/>
+      <c r="C521" s="1"/>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B522" s="1"/>
+      <c r="C522" s="1"/>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B523" s="1"/>
+      <c r="C523" s="1"/>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B525" s="1"/>
+      <c r="C525" s="1"/>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B526" s="1"/>
+      <c r="C526" s="1"/>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B537" s="1"/>
+      <c r="C537" s="1"/>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B539" s="1"/>
+      <c r="C539" s="1"/>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B541" s="1"/>
+      <c r="C541" s="1"/>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B543" s="1"/>
+      <c r="C543" s="1"/>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B544" s="1"/>
+      <c r="C544" s="1"/>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B546" s="1"/>
+      <c r="C546" s="1"/>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B547" s="1"/>
+      <c r="C547" s="1"/>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B548" s="1"/>
+      <c r="C548" s="1"/>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B549" s="1"/>
+      <c r="C549" s="1"/>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B550" s="1"/>
+      <c r="C550" s="1"/>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B551" s="1"/>
+      <c r="C551" s="1"/>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B552" s="1"/>
+      <c r="C552" s="1"/>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B553" s="1"/>
+      <c r="C553" s="1"/>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B554" s="1"/>
+      <c r="C554" s="1"/>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B555" s="1"/>
+      <c r="C555" s="1"/>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B556" s="1"/>
+      <c r="C556" s="1"/>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B557" s="1"/>
+      <c r="C557" s="1"/>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B559" s="1"/>
+      <c r="C559" s="1"/>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B560" s="1"/>
+      <c r="C560" s="1"/>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B561" s="1"/>
+      <c r="C561" s="1"/>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B562" s="1"/>
+      <c r="C562" s="1"/>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B564" s="1"/>
+      <c r="C564" s="1"/>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B565" s="1"/>
+      <c r="C565" s="1"/>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B566" s="1"/>
+      <c r="C566" s="1"/>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B567" s="1"/>
+      <c r="C567" s="1"/>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B568" s="1"/>
+      <c r="C568" s="1"/>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B569" s="1"/>
+      <c r="C569" s="1"/>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B570" s="1"/>
+      <c r="C570" s="1"/>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B571" s="1"/>
+      <c r="C571" s="1"/>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B572" s="1"/>
+      <c r="C572" s="1"/>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B573" s="1"/>
+      <c r="C573" s="1"/>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B574" s="1"/>
+      <c r="C574" s="1"/>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B575" s="1"/>
+      <c r="C575" s="1"/>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B576" s="1"/>
+      <c r="C576" s="1"/>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B577" s="1"/>
+      <c r="C577" s="1"/>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B578" s="1"/>
+      <c r="C578" s="1"/>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B579" s="1"/>
+      <c r="C579" s="1"/>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B580" s="1"/>
+      <c r="C580" s="1"/>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B581" s="1"/>
+      <c r="C581" s="1"/>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B295" s="21"/>
-      <c r="C295" s="21"/>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="12" t="s">
+      <c r="B583" s="14"/>
+      <c r="C583" s="14"/>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B296" s="13" t="s">
+      <c r="B584" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C296" s="14" t="s">
+      <c r="C584" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B297" s="16"/>
-      <c r="C297" s="17"/>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B298" s="17"/>
-      <c r="C298" s="17"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B299" s="17"/>
-      <c r="C299" s="17"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B300" s="17"/>
-      <c r="C300" s="17"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B301" s="17"/>
-      <c r="C301" s="17"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B302" s="17"/>
-      <c r="C302" s="17"/>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B303" s="17"/>
-      <c r="C303" s="17"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B304" s="17"/>
-      <c r="C304" s="17"/>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B305" s="17"/>
-      <c r="C305" s="17"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B306" s="17"/>
-      <c r="C306" s="17"/>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B307" s="17"/>
-      <c r="C307" s="17"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B308" s="17"/>
-      <c r="C308" s="17"/>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B309" s="17"/>
-      <c r="C309" s="17"/>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B310" s="17"/>
-      <c r="C310" s="17"/>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B311" s="17"/>
-      <c r="C311" s="17"/>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B312" s="17"/>
-      <c r="C312" s="17"/>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B313" s="17"/>
-      <c r="C313" s="17"/>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B314" s="17"/>
-      <c r="C314" s="17"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B315" s="17"/>
-      <c r="C315" s="17"/>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B316" s="17"/>
-      <c r="C316" s="17"/>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B317" s="17"/>
-      <c r="C317" s="17"/>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B318" s="17"/>
-      <c r="C318" s="17"/>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B319" s="17"/>
-      <c r="C319" s="17"/>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B320" s="17"/>
-      <c r="C320" s="17"/>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B321" s="17"/>
-      <c r="C321" s="17"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B322" s="17"/>
-      <c r="C322" s="17"/>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B323" s="17"/>
-      <c r="C323" s="17"/>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B324" s="17"/>
-      <c r="C324" s="17"/>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B325" s="17"/>
-      <c r="C325" s="17"/>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B326" s="17"/>
-      <c r="C326" s="17"/>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B327" s="17"/>
-      <c r="C327" s="17"/>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B328" s="17"/>
-      <c r="C328" s="17"/>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B329" s="17"/>
-      <c r="C329" s="17"/>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B330" s="17"/>
-      <c r="C330" s="17"/>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B331" s="17"/>
-      <c r="C331" s="17"/>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B332" s="17"/>
-      <c r="C332" s="17"/>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B333" s="17"/>
-      <c r="C333" s="17"/>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B334" s="17"/>
-      <c r="C334" s="17"/>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B335" s="17"/>
-      <c r="C335" s="17"/>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B336" s="17"/>
-      <c r="C336" s="17"/>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B337" s="17"/>
-      <c r="C337" s="17"/>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B338" s="17"/>
-      <c r="C338" s="17"/>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B339" s="17"/>
-      <c r="C339" s="17"/>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B340" s="17"/>
-      <c r="C340" s="17"/>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B341" s="17"/>
-      <c r="C341" s="17"/>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B342" s="17"/>
-      <c r="C342" s="17"/>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B343" s="17"/>
-      <c r="C343" s="17"/>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B344" s="17"/>
-      <c r="C344" s="17"/>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B345" s="17"/>
-      <c r="C345" s="17"/>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B346" s="17"/>
-      <c r="C346" s="17"/>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B347" s="17"/>
-      <c r="C347" s="17"/>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B348" s="17"/>
-      <c r="C348" s="17"/>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B349" s="17"/>
-      <c r="C349" s="17"/>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B350" s="17"/>
-      <c r="C350" s="17"/>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B351" s="17"/>
-      <c r="C351" s="17"/>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B352" s="17"/>
-      <c r="C352" s="17"/>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B353" s="17"/>
-      <c r="C353" s="17"/>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B354" s="17"/>
-      <c r="C354" s="17"/>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B355" s="17"/>
-      <c r="C355" s="17"/>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B356" s="17"/>
-      <c r="C356" s="17"/>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B357" s="17"/>
-      <c r="C357" s="17"/>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B358" s="17"/>
-      <c r="C358" s="17"/>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B359" s="17"/>
-      <c r="C359" s="17"/>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B360" s="17"/>
-      <c r="C360" s="17"/>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B361" s="17"/>
-      <c r="C361" s="17"/>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B362" s="17"/>
-      <c r="C362" s="17"/>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B363" s="17"/>
-      <c r="C363" s="17"/>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B364" s="17"/>
-      <c r="C364" s="17"/>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B365" s="17"/>
-      <c r="C365" s="17"/>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B366" s="17"/>
-      <c r="C366" s="17"/>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B367" s="17"/>
-      <c r="C367" s="17"/>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B368" s="17"/>
-      <c r="C368" s="17"/>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B369" s="17"/>
-      <c r="C369" s="17"/>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B370" s="17"/>
-      <c r="C370" s="17"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B371" s="17"/>
-      <c r="C371" s="17"/>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B372" s="17"/>
-      <c r="C372" s="17"/>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B373" s="17"/>
-      <c r="C373" s="17"/>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B374" s="11"/>
-      <c r="C374" s="18"/>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B375" s="19"/>
-      <c r="C375" s="16"/>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B376" s="17"/>
-      <c r="C376" s="17"/>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B377" s="17"/>
-      <c r="C377" s="17"/>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B378" s="17"/>
-      <c r="C378" s="17"/>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B379" s="17"/>
-      <c r="C379" s="17"/>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B380" s="17"/>
-      <c r="C380" s="17"/>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B381" s="17"/>
-      <c r="C381" s="17"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B382" s="17"/>
-      <c r="C382" s="17"/>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B383" s="17"/>
-      <c r="C383" s="17"/>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B384" s="17"/>
-      <c r="C384" s="17"/>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B385" s="17"/>
-      <c r="C385" s="17"/>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B386" s="17"/>
-      <c r="C386" s="17"/>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B387" s="17"/>
-      <c r="C387" s="17"/>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B388" s="17"/>
-      <c r="C388" s="17"/>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B389" s="17"/>
-      <c r="C389" s="17"/>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B390" s="17"/>
-      <c r="C390" s="17"/>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B391" s="17"/>
-      <c r="C391" s="17"/>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B392" s="17"/>
-      <c r="C392" s="17"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B393" s="17"/>
-      <c r="C393" s="17"/>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B394" s="17"/>
-      <c r="C394" s="17"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B395" s="17"/>
-      <c r="C395" s="17"/>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B396" s="17"/>
-      <c r="C396" s="17"/>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B397" s="17"/>
-      <c r="C397" s="17"/>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B398" s="17"/>
-      <c r="C398" s="17"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B399" s="17"/>
-      <c r="C399" s="17"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B400" s="17"/>
-      <c r="C400" s="17"/>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B401" s="17"/>
-      <c r="C401" s="17"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B403" s="17"/>
-      <c r="C403" s="17"/>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B404" s="20"/>
-      <c r="C404" s="17"/>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B405" s="17"/>
-      <c r="C405" s="17"/>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B406" s="17"/>
-      <c r="C406" s="17"/>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B407" s="17"/>
-      <c r="C407" s="17"/>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B408" s="17"/>
-      <c r="C408" s="17"/>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B409" s="17"/>
-      <c r="C409" s="17"/>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B410" s="17"/>
-      <c r="C410" s="17"/>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B411" s="17"/>
-      <c r="C411" s="17"/>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B412" s="17"/>
-      <c r="C412" s="17"/>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B413" s="17"/>
-      <c r="C413" s="17"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B414" s="17"/>
-      <c r="C414" s="17"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B415" s="17"/>
-      <c r="C415" s="17"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B416" s="17"/>
-      <c r="C416" s="17"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B417" s="17"/>
-      <c r="C417" s="17"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B418" s="17"/>
-      <c r="C418" s="17"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B419" s="17"/>
-      <c r="C419" s="17"/>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B420" s="17"/>
-      <c r="C420" s="17"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B421" s="17"/>
-      <c r="C421" s="17"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B422" s="17"/>
-      <c r="C422" s="17"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B423" s="17"/>
-      <c r="C423" s="17"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B424" s="17"/>
-      <c r="C424" s="17"/>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B425" s="17"/>
-      <c r="C425" s="17"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B426" s="17"/>
-      <c r="C426" s="17"/>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B427" s="17"/>
-      <c r="C427" s="17"/>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B428" s="17"/>
-      <c r="C428" s="17"/>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B429" s="17"/>
-      <c r="C429" s="17"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B430" s="17"/>
-      <c r="C430" s="17"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B431" s="17"/>
-      <c r="C431" s="17"/>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B432" s="17"/>
-      <c r="C432" s="17"/>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B433" s="17"/>
-      <c r="C433" s="17"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B434" s="17"/>
-      <c r="C434" s="17"/>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B435" s="17"/>
-      <c r="C435" s="17"/>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B436" s="17"/>
-      <c r="C436" s="17"/>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B437" s="17"/>
-      <c r="C437" s="17"/>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B438" s="17"/>
-      <c r="C438" s="17"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B439" s="17"/>
-      <c r="C439" s="17"/>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B440" s="17"/>
-      <c r="C440" s="17"/>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B585" s="18"/>
+      <c r="C585" s="18"/>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B586" s="18"/>
+      <c r="C586" s="18"/>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B587" s="18"/>
+      <c r="C587" s="18"/>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B588" s="18"/>
+      <c r="C588" s="18"/>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B589" s="18"/>
+      <c r="C589" s="18"/>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B590" s="18"/>
+      <c r="C590" s="18"/>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B591" s="18"/>
+      <c r="C591" s="18"/>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B592" s="18"/>
+      <c r="C592" s="18"/>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B593" s="18"/>
+      <c r="C593" s="18"/>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B594" s="18"/>
+      <c r="C594" s="18"/>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B595" s="18"/>
+      <c r="C595" s="18"/>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B596" s="18"/>
+      <c r="C596" s="18"/>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B597" s="18"/>
+      <c r="C597" s="18"/>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B598" s="18"/>
+      <c r="C598" s="18"/>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B599" s="18"/>
+      <c r="C599" s="18"/>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B600" s="18"/>
+      <c r="C600" s="18"/>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B601" s="18"/>
+      <c r="C601" s="18"/>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B602" s="18"/>
+      <c r="C602" s="18"/>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B603" s="18"/>
+      <c r="C603" s="18"/>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B604" s="18"/>
+      <c r="C604" s="18"/>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B605" s="18"/>
+      <c r="C605" s="18"/>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B606" s="18"/>
+      <c r="C606" s="18"/>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B607" s="18"/>
+      <c r="C607" s="18"/>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B608" s="18"/>
+      <c r="C608" s="18"/>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B609" s="18"/>
+      <c r="C609" s="18"/>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B610" s="18"/>
+      <c r="C610" s="18"/>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B611" s="18"/>
+      <c r="C611" s="18"/>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B612" s="18"/>
+      <c r="C612" s="18"/>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B613" s="18"/>
+      <c r="C613" s="18"/>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B614" s="18"/>
+      <c r="C614" s="18"/>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B615" s="18"/>
+      <c r="C615" s="18"/>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B616" s="18"/>
+      <c r="C616" s="18"/>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B617" s="18"/>
+      <c r="C617" s="18"/>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B618" s="18"/>
+      <c r="C618" s="18"/>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B619" s="18"/>
+      <c r="C619" s="18"/>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B620" s="18"/>
+      <c r="C620" s="18"/>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B621" s="18"/>
+      <c r="C621" s="18"/>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B622" s="18"/>
+      <c r="C622" s="18"/>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B623" s="18"/>
+      <c r="C623" s="18"/>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B624" s="18"/>
+      <c r="C624" s="18"/>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B625" s="18"/>
+      <c r="C625" s="18"/>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B626" s="18"/>
+      <c r="C626" s="18"/>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B627" s="18"/>
+      <c r="C627" s="18"/>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B628" s="18"/>
+      <c r="C628" s="18"/>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B629" s="18"/>
+      <c r="C629" s="18"/>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B630" s="18"/>
+      <c r="C630" s="18"/>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B631" s="18"/>
+      <c r="C631" s="18"/>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B632" s="18"/>
+      <c r="C632" s="18"/>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B633" s="18"/>
+      <c r="C633" s="18"/>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B634" s="18"/>
+      <c r="C634" s="18"/>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B635" s="18"/>
+      <c r="C635" s="18"/>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B636" s="18"/>
+      <c r="C636" s="18"/>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B637" s="18"/>
+      <c r="C637" s="18"/>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B638" s="18"/>
+      <c r="C638" s="18"/>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B639" s="18"/>
+      <c r="C639" s="18"/>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B640" s="18"/>
+      <c r="C640" s="18"/>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B641" s="18"/>
+      <c r="C641" s="18"/>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B642" s="18"/>
+      <c r="C642" s="18"/>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B643" s="18"/>
+      <c r="C643" s="18"/>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B644" s="18"/>
+      <c r="C644" s="18"/>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B645" s="18"/>
+      <c r="C645" s="18"/>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B646" s="18"/>
+      <c r="C646" s="18"/>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B647" s="18"/>
+      <c r="C647" s="18"/>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B648" s="18"/>
+      <c r="C648" s="18"/>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B649" s="18"/>
+      <c r="C649" s="18"/>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B650" s="18"/>
+      <c r="C650" s="18"/>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B651" s="18"/>
+      <c r="C651" s="18"/>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B652" s="18"/>
+      <c r="C652" s="18"/>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B653" s="18"/>
+      <c r="C653" s="18"/>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B654" s="18"/>
+      <c r="C654" s="18"/>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B655" s="18"/>
+      <c r="C655" s="18"/>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B656" s="18"/>
+      <c r="C656" s="18"/>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B657" s="18"/>
+      <c r="C657" s="18"/>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B658" s="18"/>
+      <c r="C658" s="18"/>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B659" s="18"/>
+      <c r="C659" s="18"/>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B660" s="18"/>
+      <c r="C660" s="18"/>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B661" s="18"/>
+      <c r="C661" s="18"/>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B662" s="18"/>
+      <c r="C662" s="18"/>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B663" s="18"/>
+      <c r="C663" s="18"/>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B664" s="18"/>
+      <c r="C664" s="18"/>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B665" s="18"/>
+      <c r="C665" s="18"/>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B666" s="18"/>
+      <c r="C666" s="18"/>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B667" s="18"/>
+      <c r="C667" s="18"/>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B668" s="18"/>
+      <c r="C668" s="18"/>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B669" s="18"/>
+      <c r="C669" s="18"/>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B670" s="18"/>
+      <c r="C670" s="18"/>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B671" s="18"/>
+      <c r="C671" s="18"/>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B672" s="18"/>
+      <c r="C672" s="18"/>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B673" s="18"/>
+      <c r="C673" s="18"/>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B674" s="18"/>
+      <c r="C674" s="18"/>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B675" s="18"/>
+      <c r="C675" s="18"/>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B676" s="18"/>
+      <c r="C676" s="18"/>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B677" s="18"/>
+      <c r="C677" s="18"/>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B678" s="18"/>
+      <c r="C678" s="18"/>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B679" s="18"/>
+      <c r="C679" s="18"/>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B680" s="18"/>
+      <c r="C680" s="18"/>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B681" s="18"/>
+      <c r="C681" s="18"/>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B682" s="18"/>
+      <c r="C682" s="18"/>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B683" s="18"/>
+      <c r="C683" s="18"/>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B684" s="18"/>
+      <c r="C684" s="18"/>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B685" s="18"/>
+      <c r="C685" s="18"/>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B686" s="18"/>
+      <c r="C686" s="18"/>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B687" s="18"/>
+      <c r="C687" s="18"/>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B688" s="18"/>
+      <c r="C688" s="18"/>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B689" s="18"/>
+      <c r="C689" s="18"/>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B690" s="18"/>
+      <c r="C690" s="18"/>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B691" s="18"/>
+      <c r="C691" s="18"/>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B692" s="18"/>
+      <c r="C692" s="18"/>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B693" s="18"/>
+      <c r="C693" s="18"/>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B694" s="18"/>
+      <c r="C694" s="18"/>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B695" s="18"/>
+      <c r="C695" s="18"/>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B696" s="18"/>
+      <c r="C696" s="18"/>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B697" s="18"/>
+      <c r="C697" s="18"/>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B698" s="18"/>
+      <c r="C698" s="18"/>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B699" s="18"/>
+      <c r="C699" s="18"/>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B700" s="18"/>
+      <c r="C700" s="18"/>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B701" s="18"/>
+      <c r="C701" s="18"/>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B702" s="18"/>
+      <c r="C702" s="18"/>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B703" s="18"/>
+      <c r="C703" s="18"/>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B704" s="18"/>
+      <c r="C704" s="18"/>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B705" s="18"/>
+      <c r="C705" s="18"/>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B706" s="18"/>
+      <c r="C706" s="18"/>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B707" s="18"/>
+      <c r="C707" s="18"/>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B708" s="18"/>
+      <c r="C708" s="18"/>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B709" s="18"/>
+      <c r="C709" s="18"/>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B710" s="18"/>
+      <c r="C710" s="18"/>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B711" s="18"/>
+      <c r="C711" s="18"/>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B712" s="18"/>
+      <c r="C712" s="18"/>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B713" s="18"/>
+      <c r="C713" s="18"/>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B714" s="18"/>
+      <c r="C714" s="18"/>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B715" s="18"/>
+      <c r="C715" s="18"/>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B716" s="18"/>
+      <c r="C716" s="18"/>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B717" s="18"/>
+      <c r="C717" s="18"/>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B718" s="18"/>
+      <c r="C718" s="18"/>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B719" s="18"/>
+      <c r="C719" s="18"/>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B720" s="18"/>
+      <c r="C720" s="18"/>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B721" s="18"/>
+      <c r="C721" s="18"/>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B722" s="18"/>
+      <c r="C722" s="18"/>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B723" s="18"/>
+      <c r="C723" s="18"/>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B724" s="18"/>
+      <c r="C724" s="18"/>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B725" s="18"/>
+      <c r="C725" s="18"/>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B726" s="18"/>
+      <c r="C726" s="18"/>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B727" s="18"/>
+      <c r="C727" s="18"/>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B728" s="18"/>
+      <c r="C728" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A583:C583"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B3:B146">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C146">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B150:B293">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="s">
-      <formula>NOT(ISERROR(SEARCH("s",B150)))</formula>
+  <conditionalFormatting sqref="B294:B437">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="s">
+      <formula>NOT(ISERROR(SEARCH("s",B294)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C150:C293">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="r">
-      <formula>NOT(ISERROR(SEARCH("r",C150)))</formula>
+  <conditionalFormatting sqref="C294:C437">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="r">
+      <formula>NOT(ISERROR(SEARCH("r",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="A195" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>